--- a/static/lulusan.xlsx
+++ b/static/lulusan.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,28 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\# REGISTRASI DAN STATISTIK\Website\202101\202101\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0323DCA1-7E07-4049-9404-D3EEDEFB3E3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772B67CC-BFA3-49D6-A1C8-CD0861A55805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lulusan" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
-  <si>
-    <t>Program Studi</t>
-  </si>
-  <si>
-    <t>Jenjang</t>
-  </si>
-  <si>
-    <t>s.d. 2014</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
   <si>
     <t>Teknologi Pendidikan</t>
   </si>
@@ -46,9 +38,6 @@
     <t>Magister Akuntansi</t>
   </si>
   <si>
-    <t>Magister Adminitrasi Publik</t>
-  </si>
-  <si>
     <t>Magister Manajemen</t>
   </si>
   <si>
@@ -197,12 +186,27 @@
   </si>
   <si>
     <t>Keperawatan</t>
+  </si>
+  <si>
+    <t>Magister Administrasi Publik</t>
+  </si>
+  <si>
+    <t>Ilmu Pertanian</t>
+  </si>
+  <si>
+    <t>prodi</t>
+  </si>
+  <si>
+    <t>jenjang</t>
+  </si>
+  <si>
+    <t>s.d. 2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1036,242 +1040,262 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="H1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>965</v>
+        <v>1086</v>
       </c>
       <c r="D2">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="E2">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="F2">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="G2">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="H2">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E3">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F3">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="G3">
         <v>25</v>
       </c>
       <c r="H3">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4">
+        <v>108</v>
+      </c>
+      <c r="D4">
+        <v>78</v>
+      </c>
+      <c r="E4">
+        <v>52</v>
+      </c>
+      <c r="F4">
         <v>51</v>
       </c>
-      <c r="D4">
-        <v>57</v>
-      </c>
-      <c r="E4">
-        <v>78</v>
-      </c>
-      <c r="F4">
-        <v>52</v>
-      </c>
       <c r="G4">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>39</v>
+      </c>
+      <c r="H5">
         <v>4</v>
-      </c>
-      <c r="E5">
-        <v>27</v>
-      </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <v>35</v>
-      </c>
-      <c r="H5">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F6">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F7">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="G7">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="H7">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>73</v>
       </c>
       <c r="H8">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>43</v>
       </c>
       <c r="H9">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>2825</v>
-      </c>
-      <c r="D10">
-        <v>152</v>
-      </c>
-      <c r="E10">
-        <v>90</v>
-      </c>
-      <c r="F10">
-        <v>217</v>
-      </c>
-      <c r="G10">
-        <v>258</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>269</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>193</v>
+        <v>2977</v>
+      </c>
+      <c r="D11">
+        <v>90</v>
+      </c>
+      <c r="E11">
+        <v>217</v>
+      </c>
+      <c r="F11">
+        <v>258</v>
+      </c>
+      <c r="G11">
+        <v>269</v>
+      </c>
+      <c r="H11">
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>193</v>
@@ -1279,245 +1303,248 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>1862</v>
-      </c>
-      <c r="D13">
-        <v>73</v>
-      </c>
-      <c r="E13">
-        <v>63</v>
-      </c>
-      <c r="F13">
-        <v>86</v>
-      </c>
-      <c r="G13">
-        <v>33</v>
-      </c>
-      <c r="H13">
-        <v>33</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>495</v>
+        <v>1935</v>
+      </c>
+      <c r="D14">
+        <v>63</v>
+      </c>
+      <c r="E14">
+        <v>86</v>
+      </c>
+      <c r="F14">
+        <v>33</v>
+      </c>
+      <c r="G14">
+        <v>33</v>
+      </c>
+      <c r="H14">
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>2346</v>
-      </c>
-      <c r="D15">
-        <v>139</v>
-      </c>
-      <c r="E15">
-        <v>95</v>
-      </c>
-      <c r="F15">
-        <v>162</v>
-      </c>
-      <c r="G15">
-        <v>95</v>
-      </c>
-      <c r="H15">
-        <v>66</v>
+        <v>495</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>633</v>
+        <v>2485</v>
+      </c>
+      <c r="D16">
+        <v>95</v>
+      </c>
+      <c r="E16">
+        <v>162</v>
+      </c>
+      <c r="F16">
+        <v>95</v>
+      </c>
+      <c r="G16">
+        <v>66</v>
+      </c>
+      <c r="H16">
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>1052</v>
-      </c>
-      <c r="D17">
-        <v>217</v>
-      </c>
-      <c r="E17">
-        <v>131</v>
-      </c>
-      <c r="F17">
-        <v>114</v>
-      </c>
-      <c r="G17">
-        <v>110</v>
-      </c>
-      <c r="H17">
-        <v>105</v>
+        <v>633</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>803</v>
+        <v>1269</v>
       </c>
       <c r="D18">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="E18">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="F18">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="G18">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="H18">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>603</v>
+        <v>910</v>
       </c>
       <c r="D19">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="E19">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="F19">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="G19">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H19">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>183</v>
+        <v>751</v>
       </c>
       <c r="D20">
-        <v>294</v>
+        <v>117</v>
       </c>
       <c r="E20">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F20">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="G20">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="H20">
-        <v>131</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>86</v>
+        <v>477</v>
       </c>
       <c r="D21">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="E21">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="F21">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="G21">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="H21">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>150</v>
+      </c>
+      <c r="D22">
+        <v>68</v>
+      </c>
+      <c r="E22">
+        <v>62</v>
+      </c>
+      <c r="F22">
+        <v>78</v>
       </c>
       <c r="G22">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="H22">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>13</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="H23">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="H24">
         <v>30</v>
@@ -1525,661 +1552,711 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
       </c>
       <c r="H26">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G27">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H27">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>19</v>
       </c>
       <c r="G28">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H28">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>29</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="H29">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>18</v>
       </c>
       <c r="H31">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G32">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H32">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33">
-        <v>692</v>
-      </c>
-      <c r="D33">
-        <v>70</v>
-      </c>
-      <c r="E33">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="F33">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="G33">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H33">
-        <v>86</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C34">
-        <v>488</v>
+        <v>762</v>
       </c>
       <c r="D34">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E34">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F34">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G34">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="H34">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C35">
-        <v>1207</v>
+        <v>518</v>
       </c>
       <c r="D35">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E35">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="F35">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="G35">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="H35">
-        <v>93</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>396</v>
+        <v>1270</v>
       </c>
       <c r="D36">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="E36">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="F36">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="G36">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H36">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C37">
-        <v>921</v>
+        <v>427</v>
       </c>
       <c r="D37">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="E37">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F37">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G37">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="H37">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C38">
-        <v>164</v>
+        <v>997</v>
       </c>
       <c r="D38">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E38">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F38">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G38">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H38">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>204</v>
+      </c>
+      <c r="D39">
+        <v>91</v>
+      </c>
+      <c r="E39">
+        <v>60</v>
+      </c>
+      <c r="F39">
+        <v>59</v>
+      </c>
+      <c r="G39">
+        <v>93</v>
+      </c>
+      <c r="H39">
         <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39">
-        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C40">
-        <v>17</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41">
-        <v>773</v>
-      </c>
-      <c r="D41">
-        <v>88</v>
-      </c>
-      <c r="E41">
-        <v>84</v>
-      </c>
-      <c r="F41">
-        <v>102</v>
-      </c>
-      <c r="G41">
-        <v>104</v>
-      </c>
-      <c r="H41">
-        <v>83</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C42">
-        <v>316</v>
+        <v>861</v>
       </c>
       <c r="D42">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E42">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="F42">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G42">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H42">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C43">
-        <v>61</v>
+        <v>384</v>
       </c>
       <c r="D43">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="E43">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F43">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G43">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H43">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C44">
-        <v>3108</v>
+        <v>103</v>
       </c>
       <c r="D44">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="E44">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="F44">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="G44">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="H44">
-        <v>144</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C45">
-        <v>1530</v>
+        <v>3332</v>
       </c>
       <c r="D45">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="E45">
+        <v>163</v>
+      </c>
+      <c r="F45">
         <v>131</v>
       </c>
-      <c r="F45">
-        <v>146</v>
-      </c>
       <c r="G45">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="H45">
-        <v>159</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>73</v>
+        <v>1710</v>
       </c>
       <c r="D46">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="F46">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="G46">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="H46">
-        <v>86</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>141</v>
+      </c>
+      <c r="D47">
+        <v>62</v>
+      </c>
+      <c r="E47">
+        <v>95</v>
+      </c>
+      <c r="F47">
+        <v>94</v>
+      </c>
+      <c r="G47">
+        <v>86</v>
       </c>
       <c r="H47">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48">
-        <v>98</v>
-      </c>
-      <c r="D48">
-        <v>80</v>
-      </c>
-      <c r="E48">
-        <v>63</v>
-      </c>
-      <c r="F48">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="G48">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H48">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C49">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="D49">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E49">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="G49">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H49">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C50">
         <v>65</v>
       </c>
       <c r="D50">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E50">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F50">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="G50">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H50">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C51">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="D51">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E51">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F51">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G51">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H51">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>108</v>
+      </c>
+      <c r="D52">
+        <v>58</v>
+      </c>
+      <c r="E52">
+        <v>56</v>
+      </c>
+      <c r="F52">
+        <v>37</v>
+      </c>
+      <c r="G52">
+        <v>39</v>
+      </c>
+      <c r="H52">
         <v>12</v>
-      </c>
-      <c r="C52">
-        <v>710</v>
-      </c>
-      <c r="D52">
-        <v>100</v>
-      </c>
-      <c r="E52">
-        <v>95</v>
-      </c>
-      <c r="F52">
-        <v>149</v>
-      </c>
-      <c r="G52">
-        <v>106</v>
-      </c>
-      <c r="H52">
-        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C53">
-        <v>690</v>
+        <v>810</v>
       </c>
       <c r="D53">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E53">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="F53">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G53">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="H53">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>772</v>
+      </c>
+      <c r="D54">
+        <v>108</v>
+      </c>
+      <c r="E54">
+        <v>122</v>
+      </c>
+      <c r="F54">
+        <v>108</v>
       </c>
       <c r="G54">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="H54">
-        <v>29</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <v>14</v>
+      </c>
+      <c r="G55">
+        <v>29</v>
+      </c>
+      <c r="H55">
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59">
         <v>121</v>
       </c>
-      <c r="H58">
+      <c r="G59">
         <v>119</v>
+      </c>
+      <c r="H59">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
